--- a/medicine/Psychotrope/Johann-Joseph_Krug/Johann-Joseph_Krug.xlsx
+++ b/medicine/Psychotrope/Johann-Joseph_Krug/Johann-Joseph_Krug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann-Joseph Krug est né le 27 octobre 1800 à Mayence (ville française depuis le Traité de Campo-Formio en 1797) de l'union de Johann Peter Krug et Anna Maria Koch.
 Le 17 février 1841, il épousa Anne Emma Jaunay à Châlons-en-Champagne. Ils eurent un fils, Paul Krug. Johann-Joseph Krug fonda en 1843 la maison de Champagne Krug à Reims. Il est décédé le 5 août 1866 à Allevard (Isère).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque Johann-Joseph Krug est né, Mayence était sous le joug français (voir Histoire de Mayence). C'est ainsi qu'il apprit dès son plus jeune âge l'art de vivre français. Il se sentit probablement Français dès le départ lorsqu'en 1834 il entra au service de la maison de champagne Jacquesson &amp; fils à Châlons-sur-Marne. Très rapidement, il y devint directeur faisant fonction. Après avoir été pendant sept ans directeur pour Adolphe Jacquesson, il épousa en février 1841 l'anglaise Anne Emma Jaunay dont la sœur Louisa avait épousé le président de la firme. De cette union, ils eurent un fils, (Paul °1842, † 1910), qui fut de 1898 à sa mort président du syndicat du commerce des vins de Champagne.
 En 1843, Johann-Joseph Krug migra vers Reims et commença à produire du champagne à son compte avec son partenaire Hippolyte de Vives. 1843 est l'année officielle de la fondation de la Maison Krug &amp; Cie. Au début, ils firent commerce de champagne et autres vins de la région champenoise. C'est seulement deux ans plus tard qu'ils débutèrent avec la production de leurs propres vins mousseux qui fut transférée dans des caves louées de la rue Saint-Hilaire. Krug avait un doigté particulier dans l'assemblage des vins de base. 
